--- a/data-raw/metadata/butte_release_metadata.xlsx
+++ b/data-raw/metadata/butte_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11136308-C64E-2141-A777-2194AB275D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3384A062-6188-0240-BBB3-AF8C9D1A9133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7020" yWindow="-19260" windowWidth="30240" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="760" windowWidth="16020" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Butte Creek RST</t>
+  </si>
+  <si>
+    <t>includeAnalysis</t>
+  </si>
+  <si>
+    <t>Whether or not to include data in analysis</t>
   </si>
 </sst>
 </file>
@@ -528,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1238,11 +1244,21 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -28817,7 +28833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z666"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/metadata/butte_release_metadata.xlsx
+++ b/data-raw/metadata/butte_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3384A062-6188-0240-BBB3-AF8C9D1A9133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B102E10A-F0BC-774F-925B-CC8B055513DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="760" windowWidth="16020" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -94,37 +94,19 @@
     <t>commonName</t>
   </si>
   <si>
-    <t>Common name of marked species</t>
-  </si>
-  <si>
     <t>markedRun</t>
-  </si>
-  <si>
-    <t>Run of fish marked. Levels = c("Not recorded", "Not applicable (n/a)", "Spring")</t>
   </si>
   <si>
     <t>markedLifeStage</t>
   </si>
   <si>
-    <t>Lifestage of fish marked. Levels = c("Not recorded", "Not applicable (n/a)", "Juvenile")</t>
-  </si>
-  <si>
     <t>markedFishOrigin</t>
-  </si>
-  <si>
-    <t>Origin or production type of fish marked. Levels = c("Unknown", "Not applicable (n/a)", "Natural")</t>
   </si>
   <si>
     <t>sourceOfFishSite</t>
   </si>
   <si>
-    <t>Site where fish used for release were from</t>
-  </si>
-  <si>
     <t>releaseSite</t>
-  </si>
-  <si>
-    <t>Site where fish were released</t>
   </si>
   <si>
     <t>releaseSubSite</t>
@@ -172,19 +154,10 @@
     <t>appliedMarkType</t>
   </si>
   <si>
-    <t>Mark type that was applied to the release group. Levels = "Pigment / dye"</t>
-  </si>
-  <si>
     <t>appliedMarkColor</t>
   </si>
   <si>
-    <t>Color of mark that was applied to the release group. Levels = "Brown"</t>
-  </si>
-  <si>
     <t>appliedMarkPosition</t>
-  </si>
-  <si>
-    <t>Position of the mark that was applied to the mark group. Levels = "Whole body"</t>
   </si>
   <si>
     <t>appliedMarkCode</t>
@@ -205,16 +178,43 @@
     <t>number of fish</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table. For Butte Creek data projectDescriptionID = 11.</t>
-  </si>
-  <si>
     <t>Butte Creek RST</t>
   </si>
   <si>
     <t>includeAnalysis</t>
   </si>
   <si>
-    <t>Whether or not to include data in analysis</t>
+    <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 11.</t>
+  </si>
+  <si>
+    <t>Common name of marked species. Levels = c("Chinook salmon", "Not applicable (n/a)").</t>
+  </si>
+  <si>
+    <t>Run of fish marked. Levels =c("Spring", NA)</t>
+  </si>
+  <si>
+    <t>Lifestage of fish marked. Levels = c("Juvenile", NA)</t>
+  </si>
+  <si>
+    <t>Origin or production type of fish marked. Levels = c("Natural", NA)</t>
+  </si>
+  <si>
+    <t>Site where fish used for release were from. Levels = c("Parrott-Phelan canal trap box", NA, "Parrot-Phelan RST").</t>
+  </si>
+  <si>
+    <t>Site where fish were released. Levels = c("Not applicable", "Parrott-Phelan e-test release site").</t>
+  </si>
+  <si>
+    <t>Mark type that was applied to the release group. Levels = c("Pigment / dye", NA)</t>
+  </si>
+  <si>
+    <t>Color of mark that was applied to the release group. Levels = c("Brown", NA).</t>
+  </si>
+  <si>
+    <t>Position of the mark that was applied to the mark group. Levels = c("Whole body", NA)</t>
+  </si>
+  <si>
+    <t>Whether or not to include data in analysis. Levels = c("Yes", "No", NA).</t>
   </si>
 </sst>
 </file>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -317,6 +317,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +540,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -614,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
@@ -690,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -725,10 +730,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -763,10 +768,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -801,10 +806,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -839,10 +844,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -877,10 +882,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -915,10 +920,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -930,7 +935,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -951,80 +956,80 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:26" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="18">
+        <v>100</v>
+      </c>
+      <c r="M11" s="18">
+        <v>500</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>500</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="14">
-        <v>2</v>
+        <v>44202.520868055559</v>
       </c>
       <c r="M12" s="14">
         <v>44628.555775462963</v>
@@ -1043,60 +1048,60 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>44</v>
+    <row r="13" spans="1:26" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
+      <c r="B13" s="17" t="s">
+        <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
+      <c r="C13" s="17" t="s">
+        <v>31</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
+      <c r="E13" s="17" t="s">
+        <v>32</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>37</v>
+      <c r="F13" s="18" t="s">
+        <v>31</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>46</v>
+      <c r="G13" s="18" t="s">
+        <v>40</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
+      <c r="H13" s="18" t="s">
+        <v>33</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3">
-        <v>0</v>
+      <c r="I13" s="20"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="18">
+        <v>6</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="18">
         <v>7</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1131,10 +1136,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1169,10 +1174,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1207,10 +1212,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1245,7 +1250,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>62</v>
@@ -28847,13 +28852,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -28884,7 +28889,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/butte_release_metadata.xlsx
+++ b/data-raw/metadata/butte_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B102E10A-F0BC-774F-925B-CC8B055513DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B078F08-5F38-C844-8066-D2B90F18A40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>Origin or production type of fish marked. Levels = c("Natural", NA)</t>
   </si>
   <si>
-    <t>Site where fish used for release were from. Levels = c("Parrott-Phelan canal trap box", NA, "Parrot-Phelan RST").</t>
-  </si>
-  <si>
     <t>Site where fish were released. Levels = c("Not applicable", "Parrott-Phelan e-test release site").</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>Whether or not to include data in analysis. Levels = c("Yes", "No", NA).</t>
+  </si>
+  <si>
+    <t>Site where fish used for release were from. Levels = c("Parrot-Phelan canal trap box", NA, "Parrot-Phelan RST").</t>
   </si>
 </sst>
 </file>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -317,11 +317,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +535,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -847,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -885,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -935,7 +930,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -956,53 +951,53 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="18">
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="9">
         <v>100</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="9">
         <v>500</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1048,60 +1043,60 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="18">
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9">
         <v>6</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="9">
         <v>7</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1139,7 +1134,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1177,7 +1172,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1253,7 +1248,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>

--- a/data-raw/metadata/butte_release_metadata.xlsx
+++ b/data-raw/metadata/butte_release_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B078F08-5F38-C844-8066-D2B90F18A40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE95C1B-3D48-DA41-8D4B-EA747EC2ADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>Origin or production type of fish marked. Levels = c("Natural", NA)</t>
   </si>
   <si>
-    <t>Site where fish were released. Levels = c("Not applicable", "Parrott-Phelan e-test release site").</t>
-  </si>
-  <si>
     <t>Mark type that was applied to the release group. Levels = c("Pigment / dye", NA)</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>Site where fish used for release were from. Levels = c("Parrot-Phelan canal trap box", NA, "Parrot-Phelan RST").</t>
+  </si>
+  <si>
+    <t>Site where fish were released. Levels = c("Not applicable", "Parrot-Phelan e-test release site").</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -880,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -1096,7 +1096,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1134,7 +1134,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1172,7 +1172,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1248,7 +1248,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
